--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T14:39:04+00:00</t>
+    <t>2022-01-31T16:29:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-31T16:29:45+00:00</t>
+    <t>2022-01-31T20:10:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-31T20:10:04+00:00</t>
+    <t>2022-02-11T00:28:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-11T00:28:19+00:00</t>
+    <t>2022-02-11T01:45:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-11T01:45:45+00:00</t>
+    <t>2022-02-13T22:11:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-13T22:11:31+00:00</t>
+    <t>2022-03-01T19:29:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T19:29:42+00:00</t>
+    <t>2022-03-04T23:14:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T23:14:40+00:00</t>
+    <t>2022-03-05T00:52:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T00:52:55+00:00</t>
+    <t>2022-03-05T01:03:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T01:03:34+00:00</t>
+    <t>2022-03-05T01:09:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T01:09:46+00:00</t>
+    <t>2022-03-18T16:50:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T16:50:55+00:00</t>
+    <t>2022-03-19T18:10:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-19T18:10:29+00:00</t>
+    <t>2022-03-19T18:27:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-19T18:27:00+00:00</t>
+    <t>2022-03-20T18:26:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-20T18:26:18+00:00</t>
+    <t>2022-03-20T19:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-20T19:00:26+00:00</t>
+    <t>2022-03-21T17:45:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T17:45:13+00:00</t>
+    <t>2022-03-21T18:09:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T18:09:33+00:00</t>
+    <t>2022-03-22T20:54:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-22T20:54:15+00:00</t>
+    <t>2022-03-23T00:01:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:01:05+00:00</t>
+    <t>2022-03-23T00:19:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:19:03+00:00</t>
+    <t>2022-03-23T00:33:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:33:43+00:00</t>
+    <t>2022-03-23T18:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T18:40:06+00:00</t>
+    <t>2022-03-23T19:11:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T19:11:09+00:00</t>
+    <t>2022-03-23T19:27:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T19:27:55+00:00</t>
+    <t>2022-03-23T20:20:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T20:20:45+00:00</t>
+    <t>2022-03-23T20:39:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T20:39:07+00:00</t>
+    <t>2022-03-23T21:03:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T21:03:35+00:00</t>
+    <t>2022-03-24T19:03:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T19:03:35+00:00</t>
+    <t>2022-03-24T19:25:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T19:25:05+00:00</t>
+    <t>2022-03-24T20:10:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T20:10:48+00:00</t>
+    <t>2022-03-24T20:26:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T20:26:37+00:00</t>
+    <t>2022-03-26T21:07:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:07:52+00:00</t>
+    <t>2022-03-26T21:44:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:44:34+00:00</t>
+    <t>2022-03-26T21:58:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:58:42+00:00</t>
+    <t>2022-03-26T22:00:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T22:00:49+00:00</t>
+    <t>2022-03-28T14:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T14:06:51+00:00</t>
+    <t>2022-03-28T17:18:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T17:18:58+00:00</t>
+    <t>2022-03-28T18:48:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T18:48:26+00:00</t>
+    <t>2022-03-28T20:08:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T20:08:43+00:00</t>
+    <t>2022-03-28T23:34:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:34:19+00:00</t>
+    <t>2022-03-28T23:45:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:45:02+00:00</t>
+    <t>2022-03-28T23:47:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:47:33+00:00</t>
+    <t>2022-03-29T00:49:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T00:49:23+00:00</t>
+    <t>2022-03-29T01:03:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T01:03:03+00:00</t>
+    <t>2022-03-29T01:33:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T01:33:50+00:00</t>
+    <t>2022-03-29T22:51:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T22:51:35+00:00</t>
+    <t>2022-03-30T04:10:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T04:10:02+00:00</t>
+    <t>2022-03-30T05:07:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T05:07:06+00:00</t>
+    <t>2022-03-30T05:24:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T05:24:10+00:00</t>
+    <t>2022-03-30T15:00:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T15:00:01+00:00</t>
+    <t>2022-03-30T20:32:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T20:32:02+00:00</t>
+    <t>2022-03-31T03:49:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T03:49:14+00:00</t>
+    <t>2022-03-31T04:31:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T04:31:26+00:00</t>
+    <t>2022-03-31T04:46:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T04:46:55+00:00</t>
+    <t>2022-03-31T06:22:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T06:22:16+00:00</t>
+    <t>2022-03-31T06:42:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T06:42:10+00:00</t>
+    <t>2022-04-26T17:07:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T17:07:52+00:00</t>
+    <t>2022-05-27T14:27:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-27T14:27:29+00:00</t>
+    <t>2022-06-01T13:01:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6381" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6381" uniqueCount="302">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T13:01:08+00:00</t>
+    <t>2022-09-27T20:02:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -282,7 +282,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -489,6 +489,10 @@
   </si>
   <si>
     <t>Bundle.link.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -1295,44 +1299,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.00390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.13671875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="28.78125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="39.0078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="28.78515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="105.953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="105.95703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="168.1875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="168.19140625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="49.01171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.98046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="31.1328125" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="67.23828125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="42.97265625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="42.9765625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -2584,13 +2588,13 @@
         <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2641,7 +2645,7 @@
         <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -2659,7 +2663,7 @@
         <v>76</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>76</v>
@@ -2670,11 +2674,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2693,16 +2697,16 @@
         <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2752,7 +2756,7 @@
         <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>77</v>
@@ -2764,13 +2768,13 @@
         <v>76</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>76</v>
@@ -2781,11 +2785,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2804,19 +2808,19 @@
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>76</v>
@@ -2865,7 +2869,7 @@
         <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
@@ -2877,7 +2881,7 @@
         <v>76</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>76</v>
@@ -2894,7 +2898,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2917,13 +2921,13 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2974,7 +2978,7 @@
         <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>86</v>
@@ -3003,7 +3007,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3029,10 +3033,10 @@
         <v>99</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3083,7 +3087,7 @@
         <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>86</v>
@@ -3115,7 +3119,7 @@
         <v>142</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>76</v>
@@ -3248,13 +3252,13 @@
         <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3305,7 +3309,7 @@
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -3323,7 +3327,7 @@
         <v>76</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>76</v>
@@ -3334,11 +3338,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3357,16 +3361,16 @@
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3416,7 +3420,7 @@
         <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -3428,13 +3432,13 @@
         <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>76</v>
@@ -3445,11 +3449,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3468,19 +3472,19 @@
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>76</v>
@@ -3529,7 +3533,7 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -3541,7 +3545,7 @@
         <v>76</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>76</v>
@@ -3558,7 +3562,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3581,13 +3585,13 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3599,7 +3603,7 @@
         <v>76</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>76</v>
@@ -3638,7 +3642,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>86</v>
@@ -3667,7 +3671,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3693,10 +3697,10 @@
         <v>99</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3747,7 +3751,7 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>86</v>
@@ -3776,7 +3780,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3784,7 +3788,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>78</v>
@@ -3802,10 +3806,10 @@
         <v>143</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3844,7 +3848,7 @@
         <v>76</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s" s="2">
@@ -3854,7 +3858,7 @@
         <v>148</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -3866,7 +3870,7 @@
         <v>76</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>76</v>
@@ -3883,7 +3887,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3906,13 +3910,13 @@
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3963,7 +3967,7 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -3981,7 +3985,7 @@
         <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
@@ -3992,11 +3996,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4015,16 +4019,16 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4074,7 +4078,7 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4086,13 +4090,13 @@
         <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4103,11 +4107,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4126,19 +4130,19 @@
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>76</v>
@@ -4187,7 +4191,7 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4199,7 +4203,7 @@
         <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>76</v>
@@ -4216,7 +4220,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4242,10 +4246,10 @@
         <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4296,7 +4300,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4325,7 +4329,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4351,13 +4355,13 @@
         <v>99</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4407,7 +4411,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4436,7 +4440,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4459,13 +4463,13 @@
         <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4516,7 +4520,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -4545,7 +4549,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4571,10 +4575,10 @@
         <v>143</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4625,7 +4629,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -4634,7 +4638,7 @@
         <v>86</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>97</v>
@@ -4654,7 +4658,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4677,13 +4681,13 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4734,7 +4738,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -4752,7 +4756,7 @@
         <v>76</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
@@ -4763,11 +4767,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4786,16 +4790,16 @@
         <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4845,7 +4849,7 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -4857,13 +4861,13 @@
         <v>76</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
@@ -4874,11 +4878,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4897,19 +4901,19 @@
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>76</v>
@@ -4958,7 +4962,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -4970,7 +4974,7 @@
         <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>76</v>
@@ -4987,7 +4991,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5013,13 +5017,13 @@
         <v>105</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5048,10 +5052,10 @@
         <v>125</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>76</v>
@@ -5069,7 +5073,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5098,7 +5102,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5121,16 +5125,16 @@
         <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5180,7 +5184,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5209,7 +5213,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5235,10 +5239,10 @@
         <v>143</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5289,7 +5293,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5298,7 +5302,7 @@
         <v>86</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>97</v>
@@ -5318,7 +5322,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5341,13 +5345,13 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5398,7 +5402,7 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -5416,7 +5420,7 @@
         <v>76</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>76</v>
@@ -5427,11 +5431,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5450,16 +5454,16 @@
         <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5509,7 +5513,7 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -5521,13 +5525,13 @@
         <v>76</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
@@ -5538,11 +5542,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5561,19 +5565,19 @@
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>76</v>
@@ -5622,7 +5626,7 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -5634,7 +5638,7 @@
         <v>76</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>76</v>
@@ -5651,7 +5655,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5677,10 +5681,10 @@
         <v>105</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5710,10 +5714,10 @@
         <v>125</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>76</v>
@@ -5731,7 +5735,7 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>86</v>
@@ -5760,7 +5764,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5786,13 +5790,13 @@
         <v>99</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -5842,7 +5846,7 @@
         <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>86</v>
@@ -5871,7 +5875,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5894,13 +5898,13 @@
         <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5951,7 +5955,7 @@
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -5980,7 +5984,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6006,10 +6010,10 @@
         <v>130</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6060,7 +6064,7 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6089,7 +6093,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6112,13 +6116,13 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6169,7 +6173,7 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6198,7 +6202,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6221,13 +6225,13 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6278,7 +6282,7 @@
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -6307,7 +6311,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6333,10 +6337,10 @@
         <v>143</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6387,7 +6391,7 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -6396,7 +6400,7 @@
         <v>86</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>97</v>
@@ -6416,7 +6420,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6439,13 +6443,13 @@
         <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6496,7 +6500,7 @@
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -6514,7 +6518,7 @@
         <v>76</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>76</v>
@@ -6525,11 +6529,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6548,16 +6552,16 @@
         <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6607,7 +6611,7 @@
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -6619,13 +6623,13 @@
         <v>76</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
@@ -6636,11 +6640,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -6659,19 +6663,19 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>76</v>
@@ -6720,7 +6724,7 @@
         <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -6732,7 +6736,7 @@
         <v>76</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>76</v>
@@ -6749,7 +6753,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6772,13 +6776,13 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6829,7 +6833,7 @@
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>86</v>
@@ -6858,7 +6862,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6884,10 +6888,10 @@
         <v>99</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6938,7 +6942,7 @@
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -6967,7 +6971,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6990,16 +6994,16 @@
         <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7049,7 +7053,7 @@
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7078,7 +7082,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7104,13 +7108,13 @@
         <v>130</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7160,7 +7164,7 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -7189,7 +7193,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7212,16 +7216,16 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7271,7 +7275,7 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -7300,10 +7304,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>76</v>
@@ -7328,10 +7332,10 @@
         <v>143</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7382,7 +7386,7 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -7394,7 +7398,7 @@
         <v>76</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>76</v>
@@ -7411,7 +7415,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7434,13 +7438,13 @@
         <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7491,7 +7495,7 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -7509,7 +7513,7 @@
         <v>76</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>76</v>
@@ -7520,11 +7524,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7543,16 +7547,16 @@
         <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -7602,7 +7606,7 @@
         <v>76</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -7614,13 +7618,13 @@
         <v>76</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>76</v>
@@ -7631,11 +7635,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -7654,19 +7658,19 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>76</v>
@@ -7715,7 +7719,7 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -7727,7 +7731,7 @@
         <v>76</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>76</v>
@@ -7744,7 +7748,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7770,10 +7774,10 @@
         <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7824,7 +7828,7 @@
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -7853,7 +7857,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7879,13 +7883,13 @@
         <v>99</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -7935,7 +7939,7 @@
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -7964,7 +7968,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7987,16 +7991,16 @@
         <v>76</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8046,7 +8050,7 @@
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -8058,16 +8062,16 @@
         <v>76</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>76</v>
@@ -8075,7 +8079,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8101,10 +8105,10 @@
         <v>143</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8155,7 +8159,7 @@
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -8164,7 +8168,7 @@
         <v>86</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>97</v>
@@ -8184,7 +8188,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8207,13 +8211,13 @@
         <v>76</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8264,7 +8268,7 @@
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -8282,7 +8286,7 @@
         <v>76</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>76</v>
@@ -8293,11 +8297,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8316,16 +8320,16 @@
         <v>76</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8375,7 +8379,7 @@
         <v>76</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -8387,13 +8391,13 @@
         <v>76</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>76</v>
@@ -8404,11 +8408,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8427,19 +8431,19 @@
         <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>76</v>
@@ -8488,7 +8492,7 @@
         <v>76</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -8500,7 +8504,7 @@
         <v>76</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>76</v>
@@ -8517,7 +8521,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8543,13 +8547,13 @@
         <v>105</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -8578,10 +8582,10 @@
         <v>125</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>76</v>
@@ -8599,7 +8603,7 @@
         <v>76</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -8628,7 +8632,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8651,16 +8655,16 @@
         <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -8710,7 +8714,7 @@
         <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -8739,7 +8743,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8765,10 +8769,10 @@
         <v>143</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8819,7 +8823,7 @@
         <v>76</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -8828,7 +8832,7 @@
         <v>86</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>97</v>
@@ -8848,7 +8852,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8871,13 +8875,13 @@
         <v>76</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -8928,7 +8932,7 @@
         <v>76</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -8946,7 +8950,7 @@
         <v>76</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>76</v>
@@ -8957,11 +8961,11 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -8980,16 +8984,16 @@
         <v>76</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9039,7 +9043,7 @@
         <v>76</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -9051,13 +9055,13 @@
         <v>76</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>76</v>
@@ -9068,11 +9072,11 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9091,19 +9095,19 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>76</v>
@@ -9152,7 +9156,7 @@
         <v>76</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -9164,7 +9168,7 @@
         <v>76</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>76</v>
@@ -9181,7 +9185,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9207,10 +9211,10 @@
         <v>105</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9240,10 +9244,10 @@
         <v>125</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>76</v>
@@ -9261,7 +9265,7 @@
         <v>76</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>86</v>
@@ -9290,7 +9294,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9316,13 +9320,13 @@
         <v>99</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -9372,7 +9376,7 @@
         <v>76</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>86</v>
@@ -9401,7 +9405,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9424,13 +9428,13 @@
         <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -9481,7 +9485,7 @@
         <v>76</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -9510,7 +9514,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9536,10 +9540,10 @@
         <v>130</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -9590,7 +9594,7 @@
         <v>76</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -9619,7 +9623,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9642,13 +9646,13 @@
         <v>79</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9699,7 +9703,7 @@
         <v>76</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -9728,7 +9732,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9751,13 +9755,13 @@
         <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -9808,7 +9812,7 @@
         <v>76</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -9837,7 +9841,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9863,10 +9867,10 @@
         <v>143</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -9917,7 +9921,7 @@
         <v>76</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -9926,7 +9930,7 @@
         <v>86</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>97</v>
@@ -9946,7 +9950,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9969,13 +9973,13 @@
         <v>76</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10026,7 +10030,7 @@
         <v>76</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -10044,7 +10048,7 @@
         <v>76</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>76</v>
@@ -10055,11 +10059,11 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10078,16 +10082,16 @@
         <v>76</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -10137,7 +10141,7 @@
         <v>76</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -10149,13 +10153,13 @@
         <v>76</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>76</v>
@@ -10166,11 +10170,11 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10189,19 +10193,19 @@
         <v>79</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>76</v>
@@ -10250,7 +10254,7 @@
         <v>76</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -10262,7 +10266,7 @@
         <v>76</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>76</v>
@@ -10279,7 +10283,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10302,13 +10306,13 @@
         <v>79</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -10359,7 +10363,7 @@
         <v>76</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>86</v>
@@ -10388,7 +10392,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10414,10 +10418,10 @@
         <v>99</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -10468,7 +10472,7 @@
         <v>76</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -10497,7 +10501,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10520,16 +10524,16 @@
         <v>79</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -10579,7 +10583,7 @@
         <v>76</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -10608,7 +10612,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10634,13 +10638,13 @@
         <v>130</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -10690,7 +10694,7 @@
         <v>76</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -10719,7 +10723,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10742,16 +10746,16 @@
         <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -10801,7 +10805,7 @@
         <v>76</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -10830,10 +10834,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C87" t="s" s="2">
         <v>76</v>
@@ -10858,10 +10862,10 @@
         <v>143</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -10912,7 +10916,7 @@
         <v>76</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -10924,7 +10928,7 @@
         <v>76</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>76</v>
@@ -10941,7 +10945,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -10964,13 +10968,13 @@
         <v>76</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -11021,7 +11025,7 @@
         <v>76</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -11039,7 +11043,7 @@
         <v>76</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>76</v>
@@ -11050,11 +11054,11 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -11073,16 +11077,16 @@
         <v>76</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -11132,7 +11136,7 @@
         <v>76</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -11144,13 +11148,13 @@
         <v>76</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>76</v>
@@ -11161,11 +11165,11 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -11184,19 +11188,19 @@
         <v>79</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>76</v>
@@ -11245,7 +11249,7 @@
         <v>76</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -11257,7 +11261,7 @@
         <v>76</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>76</v>
@@ -11274,7 +11278,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11300,10 +11304,10 @@
         <v>76</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -11354,7 +11358,7 @@
         <v>76</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -11383,7 +11387,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11409,13 +11413,13 @@
         <v>99</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -11465,7 +11469,7 @@
         <v>76</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -11494,11 +11498,11 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -11517,13 +11521,13 @@
         <v>76</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -11574,7 +11578,7 @@
         <v>76</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -11586,16 +11590,16 @@
         <v>76</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>76</v>
@@ -11603,7 +11607,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11629,10 +11633,10 @@
         <v>143</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -11683,7 +11687,7 @@
         <v>76</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
@@ -11692,7 +11696,7 @@
         <v>86</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>97</v>
@@ -11712,7 +11716,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11735,13 +11739,13 @@
         <v>76</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -11792,7 +11796,7 @@
         <v>76</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
@@ -11810,7 +11814,7 @@
         <v>76</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>76</v>
@@ -11821,11 +11825,11 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -11844,16 +11848,16 @@
         <v>76</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
@@ -11903,7 +11907,7 @@
         <v>76</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
@@ -11915,13 +11919,13 @@
         <v>76</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>76</v>
@@ -11932,11 +11936,11 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -11955,19 +11959,19 @@
         <v>79</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>76</v>
@@ -12016,7 +12020,7 @@
         <v>76</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>77</v>
@@ -12028,7 +12032,7 @@
         <v>76</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>76</v>
@@ -12045,7 +12049,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12071,13 +12075,13 @@
         <v>105</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -12106,10 +12110,10 @@
         <v>125</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>76</v>
@@ -12127,7 +12131,7 @@
         <v>76</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
@@ -12156,7 +12160,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12179,16 +12183,16 @@
         <v>79</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -12238,7 +12242,7 @@
         <v>76</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>77</v>
@@ -12267,7 +12271,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12293,10 +12297,10 @@
         <v>143</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -12347,7 +12351,7 @@
         <v>76</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>77</v>
@@ -12356,7 +12360,7 @@
         <v>86</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>97</v>
@@ -12376,7 +12380,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12399,13 +12403,13 @@
         <v>76</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -12456,7 +12460,7 @@
         <v>76</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>77</v>
@@ -12474,7 +12478,7 @@
         <v>76</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>76</v>
@@ -12485,11 +12489,11 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -12508,16 +12512,16 @@
         <v>76</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
@@ -12567,7 +12571,7 @@
         <v>76</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>77</v>
@@ -12579,13 +12583,13 @@
         <v>76</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>76</v>
@@ -12596,11 +12600,11 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -12619,19 +12623,19 @@
         <v>79</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>76</v>
@@ -12680,7 +12684,7 @@
         <v>76</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>77</v>
@@ -12692,7 +12696,7 @@
         <v>76</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>76</v>
@@ -12709,7 +12713,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -12735,10 +12739,10 @@
         <v>105</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -12768,10 +12772,10 @@
         <v>125</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Z104" t="s" s="2">
         <v>76</v>
@@ -12789,7 +12793,7 @@
         <v>76</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>86</v>
@@ -12818,7 +12822,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -12844,13 +12848,13 @@
         <v>99</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
@@ -12900,7 +12904,7 @@
         <v>76</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>86</v>
@@ -12929,7 +12933,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -12952,13 +12956,13 @@
         <v>79</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -13009,7 +13013,7 @@
         <v>76</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>77</v>
@@ -13038,7 +13042,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13064,10 +13068,10 @@
         <v>130</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -13118,7 +13122,7 @@
         <v>76</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>77</v>
@@ -13147,7 +13151,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13170,13 +13174,13 @@
         <v>79</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -13227,7 +13231,7 @@
         <v>76</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>77</v>
@@ -13256,7 +13260,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13279,13 +13283,13 @@
         <v>79</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -13336,7 +13340,7 @@
         <v>76</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>77</v>
@@ -13365,7 +13369,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13391,10 +13395,10 @@
         <v>143</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -13445,7 +13449,7 @@
         <v>76</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>77</v>
@@ -13454,7 +13458,7 @@
         <v>86</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>97</v>
@@ -13474,7 +13478,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13497,13 +13501,13 @@
         <v>76</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -13554,7 +13558,7 @@
         <v>76</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>77</v>
@@ -13572,7 +13576,7 @@
         <v>76</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>76</v>
@@ -13583,11 +13587,11 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
@@ -13606,16 +13610,16 @@
         <v>76</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
@@ -13665,7 +13669,7 @@
         <v>76</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>77</v>
@@ -13677,13 +13681,13 @@
         <v>76</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>76</v>
@@ -13694,11 +13698,11 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
@@ -13717,19 +13721,19 @@
         <v>79</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>76</v>
@@ -13778,7 +13782,7 @@
         <v>76</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>77</v>
@@ -13790,7 +13794,7 @@
         <v>76</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>76</v>
@@ -13807,7 +13811,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -13830,13 +13834,13 @@
         <v>79</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
@@ -13887,7 +13891,7 @@
         <v>76</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>86</v>
@@ -13916,7 +13920,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -13942,10 +13946,10 @@
         <v>99</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -13996,7 +14000,7 @@
         <v>76</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>77</v>
@@ -14025,7 +14029,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -14048,16 +14052,16 @@
         <v>79</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
@@ -14107,7 +14111,7 @@
         <v>76</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>77</v>
@@ -14136,7 +14140,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -14162,13 +14166,13 @@
         <v>130</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
@@ -14218,7 +14222,7 @@
         <v>76</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>77</v>
@@ -14247,7 +14251,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -14270,16 +14274,16 @@
         <v>79</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
@@ -14329,7 +14333,7 @@
         <v>76</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>77</v>
@@ -14358,10 +14362,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C119" t="s" s="2">
         <v>76</v>
@@ -14386,10 +14390,10 @@
         <v>143</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -14440,7 +14444,7 @@
         <v>76</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>77</v>
@@ -14452,7 +14456,7 @@
         <v>76</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>76</v>
@@ -14469,7 +14473,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -14492,13 +14496,13 @@
         <v>76</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -14549,7 +14553,7 @@
         <v>76</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>77</v>
@@ -14567,7 +14571,7 @@
         <v>76</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>76</v>
@@ -14578,11 +14582,11 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
@@ -14601,16 +14605,16 @@
         <v>76</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
@@ -14660,7 +14664,7 @@
         <v>76</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>77</v>
@@ -14672,13 +14676,13 @@
         <v>76</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>76</v>
@@ -14689,11 +14693,11 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -14712,19 +14716,19 @@
         <v>79</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>76</v>
@@ -14773,7 +14777,7 @@
         <v>76</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>77</v>
@@ -14785,7 +14789,7 @@
         <v>76</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>76</v>
@@ -14802,7 +14806,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -14828,10 +14832,10 @@
         <v>76</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -14882,7 +14886,7 @@
         <v>76</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>77</v>
@@ -14911,7 +14915,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -14937,13 +14941,13 @@
         <v>99</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
@@ -14993,7 +14997,7 @@
         <v>76</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>77</v>
@@ -15022,7 +15026,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -15045,13 +15049,13 @@
         <v>76</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
@@ -15102,7 +15106,7 @@
         <v>76</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>77</v>
@@ -15114,13 +15118,13 @@
         <v>76</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>76</v>
@@ -15131,7 +15135,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15157,10 +15161,10 @@
         <v>143</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
@@ -15211,7 +15215,7 @@
         <v>76</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>77</v>
@@ -15220,7 +15224,7 @@
         <v>86</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AI126" t="s" s="2">
         <v>97</v>
@@ -15240,7 +15244,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -15263,13 +15267,13 @@
         <v>76</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
@@ -15320,7 +15324,7 @@
         <v>76</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>77</v>
@@ -15338,7 +15342,7 @@
         <v>76</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>76</v>
@@ -15349,11 +15353,11 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
@@ -15372,16 +15376,16 @@
         <v>76</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
@@ -15431,7 +15435,7 @@
         <v>76</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>77</v>
@@ -15443,13 +15447,13 @@
         <v>76</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>76</v>
@@ -15460,11 +15464,11 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -15483,19 +15487,19 @@
         <v>79</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>76</v>
@@ -15544,7 +15548,7 @@
         <v>76</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>77</v>
@@ -15556,7 +15560,7 @@
         <v>76</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>76</v>
@@ -15573,7 +15577,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -15599,13 +15603,13 @@
         <v>105</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
@@ -15634,10 +15638,10 @@
         <v>125</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Z130" t="s" s="2">
         <v>76</v>
@@ -15655,7 +15659,7 @@
         <v>76</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>77</v>
@@ -15684,7 +15688,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -15707,16 +15711,16 @@
         <v>79</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
@@ -15766,7 +15770,7 @@
         <v>76</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>77</v>
@@ -15795,7 +15799,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -15821,10 +15825,10 @@
         <v>143</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" s="2"/>
@@ -15875,7 +15879,7 @@
         <v>76</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>77</v>
@@ -15884,7 +15888,7 @@
         <v>86</v>
       </c>
       <c r="AH132" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AI132" t="s" s="2">
         <v>97</v>
@@ -15904,7 +15908,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -15927,13 +15931,13 @@
         <v>76</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -15984,7 +15988,7 @@
         <v>76</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>77</v>
@@ -16002,7 +16006,7 @@
         <v>76</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>76</v>
@@ -16013,11 +16017,11 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
@@ -16036,16 +16040,16 @@
         <v>76</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
@@ -16095,7 +16099,7 @@
         <v>76</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>77</v>
@@ -16107,13 +16111,13 @@
         <v>76</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL134" t="s" s="2">
         <v>76</v>
@@ -16124,11 +16128,11 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
@@ -16147,19 +16151,19 @@
         <v>79</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>76</v>
@@ -16208,7 +16212,7 @@
         <v>76</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>77</v>
@@ -16220,7 +16224,7 @@
         <v>76</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>76</v>
@@ -16237,7 +16241,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -16263,10 +16267,10 @@
         <v>105</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
@@ -16296,10 +16300,10 @@
         <v>125</v>
       </c>
       <c r="X136" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Y136" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Z136" t="s" s="2">
         <v>76</v>
@@ -16317,7 +16321,7 @@
         <v>76</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>86</v>
@@ -16346,7 +16350,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -16372,13 +16376,13 @@
         <v>99</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
@@ -16428,7 +16432,7 @@
         <v>76</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>86</v>
@@ -16457,7 +16461,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -16480,13 +16484,13 @@
         <v>79</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
@@ -16537,7 +16541,7 @@
         <v>76</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>77</v>
@@ -16566,7 +16570,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -16592,10 +16596,10 @@
         <v>130</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
@@ -16646,7 +16650,7 @@
         <v>76</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>77</v>
@@ -16675,7 +16679,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -16698,13 +16702,13 @@
         <v>79</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
@@ -16755,7 +16759,7 @@
         <v>76</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>77</v>
@@ -16784,7 +16788,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -16807,13 +16811,13 @@
         <v>79</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
@@ -16864,7 +16868,7 @@
         <v>76</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>77</v>
@@ -16893,7 +16897,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -16919,10 +16923,10 @@
         <v>143</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
@@ -16973,7 +16977,7 @@
         <v>76</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>77</v>
@@ -16982,7 +16986,7 @@
         <v>86</v>
       </c>
       <c r="AH142" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AI142" t="s" s="2">
         <v>97</v>
@@ -17002,7 +17006,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -17025,13 +17029,13 @@
         <v>76</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" s="2"/>
@@ -17082,7 +17086,7 @@
         <v>76</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>77</v>
@@ -17100,7 +17104,7 @@
         <v>76</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL143" t="s" s="2">
         <v>76</v>
@@ -17111,11 +17115,11 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
@@ -17134,16 +17138,16 @@
         <v>76</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
@@ -17193,7 +17197,7 @@
         <v>76</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>77</v>
@@ -17205,13 +17209,13 @@
         <v>76</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AJ144" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL144" t="s" s="2">
         <v>76</v>
@@ -17222,11 +17226,11 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
@@ -17245,19 +17249,19 @@
         <v>79</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O145" t="s" s="2">
         <v>76</v>
@@ -17306,7 +17310,7 @@
         <v>76</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>77</v>
@@ -17318,7 +17322,7 @@
         <v>76</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>76</v>
@@ -17335,7 +17339,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -17358,13 +17362,13 @@
         <v>79</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
@@ -17415,7 +17419,7 @@
         <v>76</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>86</v>
@@ -17444,7 +17448,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -17470,10 +17474,10 @@
         <v>99</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
@@ -17524,7 +17528,7 @@
         <v>76</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>77</v>
@@ -17553,7 +17557,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -17576,16 +17580,16 @@
         <v>79</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
@@ -17635,7 +17639,7 @@
         <v>76</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>77</v>
@@ -17664,7 +17668,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -17690,13 +17694,13 @@
         <v>130</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N149" s="2"/>
       <c r="O149" t="s" s="2">
@@ -17746,7 +17750,7 @@
         <v>76</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>77</v>
@@ -17775,7 +17779,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -17798,16 +17802,16 @@
         <v>79</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" t="s" s="2">
@@ -17857,7 +17861,7 @@
         <v>76</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>77</v>
@@ -17886,10 +17890,10 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C151" t="s" s="2">
         <v>76</v>
@@ -17914,10 +17918,10 @@
         <v>143</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
@@ -17968,7 +17972,7 @@
         <v>76</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>77</v>
@@ -17980,7 +17984,7 @@
         <v>76</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AJ151" t="s" s="2">
         <v>76</v>
@@ -17997,7 +18001,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -18020,13 +18024,13 @@
         <v>76</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M152" s="2"/>
       <c r="N152" s="2"/>
@@ -18077,7 +18081,7 @@
         <v>76</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>77</v>
@@ -18095,7 +18099,7 @@
         <v>76</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL152" t="s" s="2">
         <v>76</v>
@@ -18106,11 +18110,11 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
@@ -18129,16 +18133,16 @@
         <v>76</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" t="s" s="2">
@@ -18188,7 +18192,7 @@
         <v>76</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>77</v>
@@ -18200,13 +18204,13 @@
         <v>76</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AJ153" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL153" t="s" s="2">
         <v>76</v>
@@ -18217,11 +18221,11 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
@@ -18240,19 +18244,19 @@
         <v>79</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O154" t="s" s="2">
         <v>76</v>
@@ -18301,7 +18305,7 @@
         <v>76</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>77</v>
@@ -18313,7 +18317,7 @@
         <v>76</v>
       </c>
       <c r="AI154" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AJ154" t="s" s="2">
         <v>76</v>
@@ -18330,7 +18334,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -18356,10 +18360,10 @@
         <v>76</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M155" s="2"/>
       <c r="N155" s="2"/>
@@ -18410,7 +18414,7 @@
         <v>76</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>77</v>
@@ -18439,7 +18443,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -18465,13 +18469,13 @@
         <v>99</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
@@ -18521,7 +18525,7 @@
         <v>76</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>77</v>
@@ -18550,7 +18554,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -18573,16 +18577,16 @@
         <v>76</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N157" s="2"/>
       <c r="O157" t="s" s="2">
@@ -18632,7 +18636,7 @@
         <v>76</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>77</v>
@@ -18644,16 +18648,16 @@
         <v>76</v>
       </c>
       <c r="AI157" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AJ157" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AM157" t="s" s="2">
         <v>76</v>
@@ -18661,7 +18665,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -18687,10 +18691,10 @@
         <v>143</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M158" s="2"/>
       <c r="N158" s="2"/>
@@ -18741,7 +18745,7 @@
         <v>76</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>77</v>
@@ -18750,7 +18754,7 @@
         <v>86</v>
       </c>
       <c r="AH158" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AI158" t="s" s="2">
         <v>97</v>
@@ -18770,7 +18774,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -18793,13 +18797,13 @@
         <v>76</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
@@ -18850,7 +18854,7 @@
         <v>76</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>77</v>
@@ -18868,7 +18872,7 @@
         <v>76</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL159" t="s" s="2">
         <v>76</v>
@@ -18879,11 +18883,11 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
@@ -18902,16 +18906,16 @@
         <v>76</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" t="s" s="2">
@@ -18961,7 +18965,7 @@
         <v>76</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>77</v>
@@ -18973,13 +18977,13 @@
         <v>76</v>
       </c>
       <c r="AI160" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AJ160" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL160" t="s" s="2">
         <v>76</v>
@@ -18990,11 +18994,11 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
@@ -19013,19 +19017,19 @@
         <v>79</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>76</v>
@@ -19074,7 +19078,7 @@
         <v>76</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>77</v>
@@ -19086,7 +19090,7 @@
         <v>76</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AJ161" t="s" s="2">
         <v>76</v>
@@ -19103,7 +19107,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -19129,13 +19133,13 @@
         <v>105</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" t="s" s="2">
@@ -19164,10 +19168,10 @@
         <v>125</v>
       </c>
       <c r="X162" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y162" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Z162" t="s" s="2">
         <v>76</v>
@@ -19185,7 +19189,7 @@
         <v>76</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>77</v>
@@ -19214,7 +19218,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -19237,16 +19241,16 @@
         <v>79</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
@@ -19296,7 +19300,7 @@
         <v>76</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>77</v>
@@ -19325,7 +19329,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -19351,10 +19355,10 @@
         <v>143</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M164" s="2"/>
       <c r="N164" s="2"/>
@@ -19405,7 +19409,7 @@
         <v>76</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>77</v>
@@ -19414,7 +19418,7 @@
         <v>86</v>
       </c>
       <c r="AH164" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AI164" t="s" s="2">
         <v>97</v>
@@ -19434,7 +19438,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -19457,13 +19461,13 @@
         <v>76</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M165" s="2"/>
       <c r="N165" s="2"/>
@@ -19514,7 +19518,7 @@
         <v>76</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>77</v>
@@ -19532,7 +19536,7 @@
         <v>76</v>
       </c>
       <c r="AK165" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL165" t="s" s="2">
         <v>76</v>
@@ -19543,11 +19547,11 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
@@ -19566,16 +19570,16 @@
         <v>76</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N166" s="2"/>
       <c r="O166" t="s" s="2">
@@ -19625,7 +19629,7 @@
         <v>76</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>77</v>
@@ -19637,13 +19641,13 @@
         <v>76</v>
       </c>
       <c r="AI166" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AJ166" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK166" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL166" t="s" s="2">
         <v>76</v>
@@ -19654,11 +19658,11 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
@@ -19677,19 +19681,19 @@
         <v>79</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>76</v>
@@ -19738,7 +19742,7 @@
         <v>76</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>77</v>
@@ -19750,7 +19754,7 @@
         <v>76</v>
       </c>
       <c r="AI167" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AJ167" t="s" s="2">
         <v>76</v>
@@ -19767,7 +19771,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -19793,10 +19797,10 @@
         <v>105</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M168" s="2"/>
       <c r="N168" s="2"/>
@@ -19826,10 +19830,10 @@
         <v>125</v>
       </c>
       <c r="X168" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Y168" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Z168" t="s" s="2">
         <v>76</v>
@@ -19847,7 +19851,7 @@
         <v>76</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>86</v>
@@ -19876,7 +19880,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -19902,13 +19906,13 @@
         <v>99</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N169" s="2"/>
       <c r="O169" t="s" s="2">
@@ -19958,7 +19962,7 @@
         <v>76</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>86</v>
@@ -19987,7 +19991,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -20010,13 +20014,13 @@
         <v>79</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" s="2"/>
@@ -20067,7 +20071,7 @@
         <v>76</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>77</v>
@@ -20096,7 +20100,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -20122,10 +20126,10 @@
         <v>130</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M171" s="2"/>
       <c r="N171" s="2"/>
@@ -20176,7 +20180,7 @@
         <v>76</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>77</v>
@@ -20205,7 +20209,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -20228,13 +20232,13 @@
         <v>79</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M172" s="2"/>
       <c r="N172" s="2"/>
@@ -20285,7 +20289,7 @@
         <v>76</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>77</v>
@@ -20314,7 +20318,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -20337,13 +20341,13 @@
         <v>79</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M173" s="2"/>
       <c r="N173" s="2"/>
@@ -20394,7 +20398,7 @@
         <v>76</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>77</v>
@@ -20423,7 +20427,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -20449,10 +20453,10 @@
         <v>143</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M174" s="2"/>
       <c r="N174" s="2"/>
@@ -20503,7 +20507,7 @@
         <v>76</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>77</v>
@@ -20512,7 +20516,7 @@
         <v>86</v>
       </c>
       <c r="AH174" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AI174" t="s" s="2">
         <v>97</v>
@@ -20532,7 +20536,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -20555,13 +20559,13 @@
         <v>76</v>
       </c>
       <c r="J175" t="s" s="2">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M175" s="2"/>
       <c r="N175" s="2"/>
@@ -20612,7 +20616,7 @@
         <v>76</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>77</v>
@@ -20630,7 +20634,7 @@
         <v>76</v>
       </c>
       <c r="AK175" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL175" t="s" s="2">
         <v>76</v>
@@ -20641,11 +20645,11 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
@@ -20664,16 +20668,16 @@
         <v>76</v>
       </c>
       <c r="J176" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" t="s" s="2">
@@ -20723,7 +20727,7 @@
         <v>76</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>77</v>
@@ -20735,13 +20739,13 @@
         <v>76</v>
       </c>
       <c r="AI176" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AJ176" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK176" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL176" t="s" s="2">
         <v>76</v>
@@ -20752,11 +20756,11 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" t="s" s="2">
@@ -20775,19 +20779,19 @@
         <v>79</v>
       </c>
       <c r="J177" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>76</v>
@@ -20836,7 +20840,7 @@
         <v>76</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>77</v>
@@ -20848,7 +20852,7 @@
         <v>76</v>
       </c>
       <c r="AI177" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AJ177" t="s" s="2">
         <v>76</v>
@@ -20865,7 +20869,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -20888,13 +20892,13 @@
         <v>79</v>
       </c>
       <c r="J178" t="s" s="2">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M178" s="2"/>
       <c r="N178" s="2"/>
@@ -20945,7 +20949,7 @@
         <v>76</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>86</v>
@@ -20974,7 +20978,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -21000,10 +21004,10 @@
         <v>99</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" s="2"/>
@@ -21054,7 +21058,7 @@
         <v>76</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>77</v>
@@ -21083,7 +21087,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -21106,16 +21110,16 @@
         <v>79</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N180" s="2"/>
       <c r="O180" t="s" s="2">
@@ -21165,7 +21169,7 @@
         <v>76</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>77</v>
@@ -21194,7 +21198,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -21220,13 +21224,13 @@
         <v>130</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N181" s="2"/>
       <c r="O181" t="s" s="2">
@@ -21276,7 +21280,7 @@
         <v>76</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>77</v>
@@ -21305,7 +21309,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -21328,16 +21332,16 @@
         <v>79</v>
       </c>
       <c r="J182" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N182" s="2"/>
       <c r="O182" t="s" s="2">
@@ -21387,7 +21391,7 @@
         <v>76</v>
       </c>
       <c r="AE182" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF182" t="s" s="2">
         <v>77</v>
@@ -21416,7 +21420,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -21439,19 +21443,19 @@
         <v>79</v>
       </c>
       <c r="J183" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O183" t="s" s="2">
         <v>76</v>
@@ -21500,7 +21504,7 @@
         <v>76</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>77</v>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:02:38+00:00</t>
+    <t>2022-09-27T20:20:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:20:50+00:00</t>
+    <t>2022-09-27T20:30:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:30:57+00:00</t>
+    <t>2022-09-27T22:49:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T22:49:39+00:00</t>
+    <t>2022-09-27T23:00:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T23:00:34+00:00</t>
+    <t>2022-09-27T23:08:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T23:08:58+00:00</t>
+    <t>2022-10-27T10:56:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -10928,7 +10928,7 @@
         <v>76</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>76</v>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T10:56:05+00:00</t>
+    <t>2022-11-23T04:23:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T04:23:36+00:00</t>
+    <t>2022-11-23T11:18:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T11:18:03+00:00</t>
+    <t>2022-11-23T11:20:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T11:20:15+00:00</t>
+    <t>2022-11-23T15:17:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T15:17:18+00:00</t>
+    <t>2022-11-28T15:39:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T15:39:12+00:00</t>
+    <t>2022-11-28T23:56:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T23:56:31+00:00</t>
+    <t>2022-11-29T11:57:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T11:57:57+00:00</t>
+    <t>2022-11-30T13:59:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T13:59:42+00:00</t>
+    <t>2022-11-30T15:11:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,9 +84,8 @@
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">A [DDCC Document Signed](StructureDefinition-DDCCDocumentSigned.html) is a document bundle containing the DDCC
-that has a digital signature.
-</t>
+    <t>A [DDCC Document Signed](StructureDefinition-DDCCDocumentSigned.html) is a document bundle containing the DDCC
+that has a digital signature.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T15:11:20+00:00</t>
+    <t>2022-11-30T15:45:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-08T23:46:44+00:00</t>
+    <t>2023-01-09T00:16:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCDocumentSigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T14:19:24+00:00</t>
+    <t>2023-01-11T17:29:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
